--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>0.2309405246574373</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627430985013185</v>
+        <v>-1.627095718940347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01831618764517568</v>
+        <v>0.02099674220875075</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2274905084327462</v>
+        <v>-0.2270938556141785</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2365784858973526</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.652424834640318</v>
+        <v>-1.651635464050986</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01909690112934082</v>
+        <v>0.02218670066445407</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.20303812138334</v>
+        <v>-0.2023266647405121</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2564283316209082</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.70537090283307</v>
+        <v>-1.705384281995601</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02057310278480041</v>
+        <v>-0.01791773252716615</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2129355536180788</v>
+        <v>-0.2122996498930733</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2945482469475089</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817130982502783</v>
+        <v>-1.817000338915715</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02589800947216064</v>
+        <v>-0.02429250996843394</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2317718404426841</v>
+        <v>-0.2317340639837729</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3510143330998231</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781502272682581</v>
+        <v>-1.782560013532095</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003671285460273628</v>
+        <v>-0.00349027326132405</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2266657224131847</v>
+        <v>-0.2263084200726494</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4223535806951849</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.602803094831753</v>
+        <v>-1.603187942506911</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06043693933118208</v>
+        <v>0.0602386129218982</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2107287788100152</v>
+        <v>-0.2095482644690397</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.5022048100640583</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.342572874535793</v>
+        <v>-1.342764117859031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09702343978669527</v>
+        <v>0.09515665310883266</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1997956419934606</v>
+        <v>-0.1987961398514347</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.5799223538822608</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.936588483607388</v>
+        <v>-0.9359100813661074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1925490862393127</v>
+        <v>0.1917825389272393</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1750992819802528</v>
+        <v>-0.1737975681669372</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.6445900181208996</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4949572816388869</v>
+        <v>-0.4947007165221149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2065956328778001</v>
+        <v>0.2046863476836623</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1290025579938409</v>
+        <v>-0.1268272635682033</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.6861112871637629</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02055736259358741</v>
+        <v>-0.01903371208416834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804417311582678</v>
+        <v>0.1787559566793548</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06474480138586161</v>
+        <v>-0.0619572135220381</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6977176098087661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5319375151550457</v>
+        <v>0.5343284502003015</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1428069339679684</v>
+        <v>0.1418373381892472</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02847962911141422</v>
+        <v>0.03120583022950701</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6790041600250314</v>
       </c>
       <c r="E13" t="n">
-        <v>1.099339928001518</v>
+        <v>1.103374139009411</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02446115829473356</v>
+        <v>0.02229058592645992</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1314330717974496</v>
+        <v>0.1334667045021701</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6358821440843108</v>
       </c>
       <c r="E14" t="n">
-        <v>1.704150479284822</v>
+        <v>1.709601307501886</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1794388526976788</v>
+        <v>-0.1825286522327921</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2510443588442102</v>
+        <v>0.2529048494455876</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5770562160321103</v>
       </c>
       <c r="E15" t="n">
-        <v>2.346041773027727</v>
+        <v>2.352816351325806</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4525327442624695</v>
+        <v>-0.4561183598207924</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3742160771433529</v>
+        <v>0.3766746950108246</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5123838296465077</v>
       </c>
       <c r="E16" t="n">
-        <v>2.968774106026161</v>
+        <v>2.975701364179006</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6892667941252142</v>
+        <v>-0.691930034478455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5219314756009372</v>
+        <v>0.5252432118321538</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4506299489975069</v>
       </c>
       <c r="E17" t="n">
-        <v>3.567839487516718</v>
+        <v>3.574499162418941</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9320907239682713</v>
+        <v>-0.935559862111618</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6833313962991098</v>
+        <v>0.687164132859477</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3998227973065999</v>
       </c>
       <c r="E18" t="n">
-        <v>4.135150607254154</v>
+        <v>4.14402807509829</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.155903650864259</v>
+        <v>-1.158309539091167</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8181980766695166</v>
+        <v>0.822163030836073</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3660682490920569</v>
       </c>
       <c r="E19" t="n">
-        <v>4.608749350566711</v>
+        <v>4.619026121409684</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.370776149151258</v>
+        <v>-1.371216874505222</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9937342630960906</v>
+        <v>0.9974458001841177</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3527210003437178</v>
       </c>
       <c r="E20" t="n">
-        <v>4.972980523273933</v>
+        <v>4.985931552603995</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.546072297661834</v>
+        <v>-1.544903588464268</v>
       </c>
       <c r="G20" t="n">
-        <v>1.128665478250471</v>
+        <v>1.132554879499205</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3601938362943642</v>
       </c>
       <c r="E21" t="n">
-        <v>5.310051996043112</v>
+        <v>5.323451620822745</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.761398900465329</v>
+        <v>-1.75957303828462</v>
       </c>
       <c r="G21" t="n">
-        <v>1.261512692088249</v>
+        <v>1.265103029703936</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3858490094910688</v>
       </c>
       <c r="E22" t="n">
-        <v>5.60369155919824</v>
+        <v>5.619534061654131</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.915877859087142</v>
+        <v>-1.912119888435037</v>
       </c>
       <c r="G22" t="n">
-        <v>1.369038660321663</v>
+        <v>1.372838342480483</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4248002364708321</v>
       </c>
       <c r="E23" t="n">
-        <v>5.766051631560407</v>
+        <v>5.783074648357273</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.04573601061357</v>
+        <v>-2.041576665085533</v>
       </c>
       <c r="G23" t="n">
-        <v>1.477298121465603</v>
+        <v>1.482160266531301</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4710354972590734</v>
       </c>
       <c r="E24" t="n">
-        <v>5.924204350811335</v>
+        <v>5.942052153627764</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.139313021394017</v>
+        <v>-2.135039559479686</v>
       </c>
       <c r="G24" t="n">
-        <v>1.518649177801293</v>
+        <v>1.522368584984927</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5183472740770761</v>
       </c>
       <c r="E25" t="n">
-        <v>6.0172949896833</v>
+        <v>6.036702645448938</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.173147349415936</v>
+        <v>-2.168653524824623</v>
       </c>
       <c r="G25" t="n">
-        <v>1.590607035950675</v>
+        <v>1.594479122989075</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5620329462198956</v>
       </c>
       <c r="E26" t="n">
-        <v>6.074054119197403</v>
+        <v>6.092937626595648</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.195722718663191</v>
+        <v>-2.191578326316807</v>
       </c>
       <c r="G26" t="n">
-        <v>1.658585773761409</v>
+        <v>1.663701335905637</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5980500974032704</v>
       </c>
       <c r="E27" t="n">
-        <v>6.062549613439817</v>
+        <v>6.081400066436514</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.191127369838554</v>
+        <v>-2.187293059259066</v>
       </c>
       <c r="G27" t="n">
-        <v>1.631446536071943</v>
+        <v>1.636667557497297</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6237982330233597</v>
       </c>
       <c r="E28" t="n">
-        <v>6.001318695602099</v>
+        <v>6.021025415000783</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.205029893727442</v>
+        <v>-2.201818107710428</v>
       </c>
       <c r="G28" t="n">
-        <v>1.625509335946397</v>
+        <v>1.630283335941302</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6380262884693244</v>
       </c>
       <c r="E29" t="n">
-        <v>5.901118212359219</v>
+        <v>5.920097734923862</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.156450154577179</v>
+        <v>-2.153831773768895</v>
       </c>
       <c r="G29" t="n">
-        <v>1.598985539733359</v>
+        <v>1.603998790634702</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6397713787663685</v>
       </c>
       <c r="E30" t="n">
-        <v>5.770046492090267</v>
+        <v>5.789665066418159</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.154377958403986</v>
+        <v>-2.153459518246707</v>
       </c>
       <c r="G30" t="n">
-        <v>1.533156912042321</v>
+        <v>1.538689589253693</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6300065925238235</v>
       </c>
       <c r="E31" t="n">
-        <v>5.573766307664072</v>
+        <v>5.592130388752286</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.099654035613725</v>
+        <v>-2.098438892852081</v>
       </c>
       <c r="G31" t="n">
-        <v>1.46994902618825</v>
+        <v>1.475720954306059</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6101001045689733</v>
       </c>
       <c r="E32" t="n">
-        <v>5.392902066511895</v>
+        <v>5.411341700517933</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.023355819737356</v>
+        <v>-2.022711258907183</v>
       </c>
       <c r="G32" t="n">
-        <v>1.427326162402548</v>
+        <v>1.432559775980873</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5815303093424617</v>
       </c>
       <c r="E33" t="n">
-        <v>5.130108556076896</v>
+        <v>5.146719179863982</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.98647497770616</v>
+        <v>-1.987594105301405</v>
       </c>
       <c r="G33" t="n">
-        <v>1.368209152244737</v>
+        <v>1.372932783627761</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5470281301327065</v>
       </c>
       <c r="E34" t="n">
-        <v>4.907746874810748</v>
+        <v>4.922585153067249</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.917512477944613</v>
+        <v>-1.919247047016286</v>
       </c>
       <c r="G34" t="n">
-        <v>1.272471013210744</v>
+        <v>1.27739139698393</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5073441148704834</v>
       </c>
       <c r="E35" t="n">
-        <v>4.619296852698548</v>
+        <v>4.633006559245077</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.880681217515737</v>
+        <v>-1.882345742736513</v>
       </c>
       <c r="G35" t="n">
-        <v>1.187337040996954</v>
+        <v>1.192082708647676</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4649403191738861</v>
       </c>
       <c r="E36" t="n">
-        <v>4.249029316661137</v>
+        <v>4.260919457103443</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.842313714424472</v>
+        <v>-1.843822411752239</v>
       </c>
       <c r="G36" t="n">
-        <v>1.138087556710577</v>
+        <v>1.142800169959751</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4209856626919296</v>
       </c>
       <c r="E37" t="n">
-        <v>3.939108099715275</v>
+        <v>3.949709118497235</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.802433578957638</v>
+        <v>-1.802667320797151</v>
       </c>
       <c r="G37" t="n">
-        <v>1.055478311167353</v>
+        <v>1.060093335231006</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3772710752963286</v>
       </c>
       <c r="E38" t="n">
-        <v>3.655927893621189</v>
+        <v>3.665131183423434</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.725226367038718</v>
+        <v>-1.725698572775108</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9795539248322928</v>
+        <v>0.9827051111131366</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.334907580026322</v>
       </c>
       <c r="E39" t="n">
-        <v>3.314656937836381</v>
+        <v>3.321968256654822</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.687827672716613</v>
+        <v>-1.688055118479641</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8962363706844834</v>
+        <v>0.899264783473866</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2947412623325051</v>
       </c>
       <c r="E40" t="n">
-        <v>2.986656537263258</v>
+        <v>2.993385469006819</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.649209113575501</v>
+        <v>-1.64955933282999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8357279276234424</v>
+        <v>0.8383219111353459</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.25763660491701</v>
       </c>
       <c r="E41" t="n">
-        <v>2.667009456166879</v>
+        <v>2.671973912475461</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.628165264933271</v>
+        <v>-1.629106528367809</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7821876672123995</v>
+        <v>0.7841394509228123</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2233078124875741</v>
       </c>
       <c r="E42" t="n">
-        <v>2.333303236279041</v>
+        <v>2.336818020976905</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.576591741414294</v>
+        <v>-1.577491293342117</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7213770124800687</v>
+        <v>0.72269761452284</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.191875136349925</v>
       </c>
       <c r="E43" t="n">
-        <v>2.077723455476963</v>
+        <v>2.08004355966176</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.524750634644695</v>
+        <v>-1.524860028973625</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6459232578622777</v>
+        <v>0.6469054457939692</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1630244941605959</v>
       </c>
       <c r="E44" t="n">
-        <v>1.824649513115996</v>
+        <v>1.826719348260506</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.505804953491159</v>
+        <v>-1.506081193846947</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5603391161797954</v>
+        <v>0.5612662134422415</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1366917887285456</v>
       </c>
       <c r="E45" t="n">
-        <v>1.599317657767953</v>
+        <v>1.601130927795692</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.427548657827892</v>
+        <v>-1.427218113812419</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5060590667817411</v>
+        <v>0.5066965445258679</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1129275503497615</v>
       </c>
       <c r="E46" t="n">
-        <v>1.387846614802085</v>
+        <v>1.388929539957539</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.366425560299983</v>
+        <v>-1.365196251366247</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4438475350314527</v>
+        <v>0.4439152178536687</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09197401532443268</v>
       </c>
       <c r="E47" t="n">
-        <v>1.236385050835805</v>
+        <v>1.237050860924115</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.320331197342253</v>
+        <v>-1.317864709379175</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3801658694218695</v>
+        <v>0.3800131895671033</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.07381307038307232</v>
       </c>
       <c r="E48" t="n">
-        <v>1.027523731573053</v>
+        <v>1.027372625737408</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.241948980149282</v>
+        <v>-1.239813823211238</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2950334712272005</v>
+        <v>0.2947312595559108</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05906997479777608</v>
       </c>
       <c r="E49" t="n">
-        <v>0.870704206517865</v>
+        <v>0.8701092272900133</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.171196820646816</v>
+        <v>-1.169146660741322</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2507358510964353</v>
+        <v>0.2500731890463677</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04748484301166939</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7720368178991314</v>
+        <v>0.7712938808738774</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.098821847430289</v>
+        <v>-1.096444291547565</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2128318966363934</v>
+        <v>0.2126398663035947</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03887771622986157</v>
       </c>
       <c r="E51" t="n">
-        <v>0.637351149727674</v>
+        <v>0.6359439766332312</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.065893367412679</v>
+        <v>-1.064130465996822</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1713879731725463</v>
+        <v>0.170936229684733</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03302601019197408</v>
       </c>
       <c r="E52" t="n">
-        <v>0.464311357627483</v>
+        <v>0.4632063962043299</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.0299781861124</v>
+        <v>-1.027586464057584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1288784387635786</v>
+        <v>0.1282535531724222</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02914492539003514</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4039461503064803</v>
+        <v>0.4028002643861734</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.028282180509199</v>
+        <v>-1.02639571859232</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1014590256705206</v>
+        <v>0.1012040345728699</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02662257556308596</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2462231382756662</v>
+        <v>0.2461507333960863</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9680546998613101</v>
+        <v>-0.9658337588811549</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05483028322110903</v>
+        <v>0.05460519848676303</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02490497696528974</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1275657068164138</v>
+        <v>0.1275798729885055</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9434937054925342</v>
+        <v>-0.94134674341108</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02779965285101232</v>
+        <v>0.0275084593135717</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.02328429924844027</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03930258458947775</v>
+        <v>0.03935137918223807</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9277889297097566</v>
+        <v>-0.9253303118422849</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007790493500717529</v>
+        <v>-0.00820603454874091</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02161049935052292</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07338931440004499</v>
+        <v>-0.07304775225072274</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9283083560197858</v>
+        <v>-0.9260787579344634</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05026854752725919</v>
+        <v>-0.05055187096909331</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.01921956439707185</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1278708382456257</v>
+        <v>-0.1283603581923502</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9093729059905384</v>
+        <v>-0.9064680537021781</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08012139418184804</v>
+        <v>-0.0807163734096997</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.01616388937640598</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2079474870226769</v>
+        <v>-0.2080246139596206</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9180890368747411</v>
+        <v>-0.9149284064791693</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1062170571938921</v>
+        <v>-0.1059116974843598</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01171572572670459</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2997977988270572</v>
+        <v>-0.30104757000937</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9143562505285765</v>
+        <v>-0.9111846019991556</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1252910209058139</v>
+        <v>-0.1249714950241898</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.005833503724618827</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3933984198943239</v>
+        <v>-0.3940170094089951</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8958497207098837</v>
+        <v>-0.8928354740925928</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1466504603818642</v>
+        <v>-0.146738605452657</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.0018240501021647</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5005182911944422</v>
+        <v>-0.5020765701245299</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8857232686929957</v>
+        <v>-0.8819283085915397</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1754912127414567</v>
+        <v>-0.1758201827378086</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01115072212838635</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5650389089956788</v>
+        <v>-0.5660856317113436</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8946298558908756</v>
+        <v>-0.8911992812160008</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1968490781983857</v>
+        <v>-0.1970694408753678</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.02179839681196612</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6837970776786944</v>
+        <v>-0.6863894871714765</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9168101463386842</v>
+        <v>-0.9130364354953658</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2332939169329819</v>
+        <v>-0.2339738931933838</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.03350534306705437</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8055742150363646</v>
+        <v>-0.808366524957552</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9525388063730885</v>
+        <v>-0.9476066174564929</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2784100270068235</v>
+        <v>-0.2795165624490978</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.04563866336212696</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9025306448702444</v>
+        <v>-0.9050183820914601</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.981541682702175</v>
+        <v>-0.9767590256021029</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3049936359464708</v>
+        <v>-0.3060686910063192</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05803173053754317</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9451802669810079</v>
+        <v>-0.9480457687913357</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.021026739369563</v>
+        <v>-1.016030802678555</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3438435758984144</v>
+        <v>-0.3457009184615492</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.07002749264313195</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9912525936710396</v>
+        <v>-0.99384264213514</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.030588118521904</v>
+        <v>-1.026494881796962</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3668541614327091</v>
+        <v>-0.3685745643322908</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.08155480131695614</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.055006664160203</v>
+        <v>-1.059592568870112</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.078532740956723</v>
+        <v>-1.074675607099976</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.386211448586465</v>
+        <v>-0.3883946131077091</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0924499590000879</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.08169966742878</v>
+        <v>-1.086481537519292</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.120936029075003</v>
+        <v>-1.118219272071638</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3988287858628113</v>
+        <v>-0.4016525761664247</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1026757817401374</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.099745009644932</v>
+        <v>-1.106130018210488</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.130099968399216</v>
+        <v>-1.127095952906213</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4286517261540954</v>
+        <v>-0.4315054228210136</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1122388740698875</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.123278169527499</v>
+        <v>-1.131105766617727</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.170974883950713</v>
+        <v>-1.169475630737674</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4061967693696198</v>
+        <v>-0.4091716655088781</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1210087140811065</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.096345915352483</v>
+        <v>-1.106021410891119</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.196714818641343</v>
+        <v>-1.194296338261464</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4129760697250619</v>
+        <v>-0.4160123526100509</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1284185601925622</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.099024895896937</v>
+        <v>-1.109675496281218</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.218123052710154</v>
+        <v>-1.217051932698108</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4167127911190297</v>
+        <v>-0.4203015547155953</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1339217296533008</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.055833024198886</v>
+        <v>-1.067699554354371</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.236076314807709</v>
+        <v>-1.23395925908956</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4232292302812146</v>
+        <v>-0.4273689005702354</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1378744604130777</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9677446180944138</v>
+        <v>-0.9788933955305866</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.250048095537935</v>
+        <v>-1.24907377770185</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3965496061751679</v>
+        <v>-0.4007664034011325</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1396581337298469</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9066608710445374</v>
+        <v>-0.9176168311383508</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.260590088602846</v>
+        <v>-1.258747699221364</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3795029790914815</v>
+        <v>-0.3835545043097094</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1401498753510865</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7592964788510032</v>
+        <v>-0.7693261286919311</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.246412898377291</v>
+        <v>-1.244989198082074</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3352242471901718</v>
+        <v>-0.3396315007298137</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1389590571388558</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6462866279989776</v>
+        <v>-0.6559385132507934</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.267244254438145</v>
+        <v>-1.265416818238315</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3205465188840429</v>
+        <v>-0.3248640533337707</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1360389952977427</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.489811813131355</v>
+        <v>-0.4985303050442395</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.263573641847272</v>
+        <v>-1.261165392591681</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2989053299852797</v>
+        <v>-0.3026089969777003</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.131194878802275</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3455576827215108</v>
+        <v>-0.3537032316742419</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.279816732169534</v>
+        <v>-1.278529971537871</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2748527437926839</v>
+        <v>-0.2791450939364709</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1241394563319975</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1848015358439503</v>
+        <v>-0.1925268216912941</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.291285822496891</v>
+        <v>-1.290405945808085</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2498762083758846</v>
+        <v>-0.2538852350778374</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1143571577304104</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009666952573628399</v>
+        <v>0.002220268110754846</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.271511420275991</v>
+        <v>-1.270368682393927</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1868052621853661</v>
+        <v>-0.1896558108140416</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1016994085872614</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1735097509480596</v>
+        <v>0.1663463899270202</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.270731493801387</v>
+        <v>-1.269048867360716</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1633759875648053</v>
+        <v>-0.1660801524151999</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.086442393738278</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3440263903968057</v>
+        <v>0.3361830531153644</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.190968861839035</v>
+        <v>-1.189874918549731</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1183889470589104</v>
+        <v>-0.1208208066013199</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06909864180704924</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5454189889289861</v>
+        <v>0.5388254228298576</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.120283598149224</v>
+        <v>-1.119832641670971</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06604651519917729</v>
+        <v>-0.06819505129975273</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.05118694669251989</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7334434430639598</v>
+        <v>0.727712439443304</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.038266183795609</v>
+        <v>-1.037745183466459</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02075411498374999</v>
+        <v>-0.02240683506111572</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03468765469390367</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8904376842416116</v>
+        <v>0.8849238952596954</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9133087408033509</v>
+        <v>-0.9128695894685079</v>
       </c>
       <c r="G88" t="n">
-        <v>0.003844655843937156</v>
+        <v>0.001836207445157478</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0222256619339822</v>
       </c>
       <c r="E89" t="n">
-        <v>1.030127159199684</v>
+        <v>1.024806974569688</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8078345064945525</v>
+        <v>-0.8074000772170734</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03700609069150004</v>
+        <v>0.0357453013753382</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01656473592210845</v>
       </c>
       <c r="E90" t="n">
-        <v>1.130788830045105</v>
+        <v>1.125709470340668</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6629696566656437</v>
+        <v>-0.6623353269597595</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0547547303032866</v>
+        <v>0.05354116156076377</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02010596718222681</v>
       </c>
       <c r="E91" t="n">
-        <v>1.229416868185806</v>
+        <v>1.22545191401925</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4891019305076483</v>
+        <v>-0.4887682384539326</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02915803135269482</v>
+        <v>0.02794761064841459</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03380166561506718</v>
       </c>
       <c r="E92" t="n">
-        <v>1.265850688786553</v>
+        <v>1.262156465908861</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.340438972539041</v>
+        <v>-0.3395984463282664</v>
       </c>
       <c r="G92" t="n">
-        <v>0.055892746127987</v>
+        <v>0.05512777283503487</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05867101759947124</v>
       </c>
       <c r="E93" t="n">
-        <v>1.294908655784885</v>
+        <v>1.291253783385225</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2327713425847101</v>
+        <v>-0.2320000732152727</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04278274086667357</v>
+        <v>0.04260015464860269</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09289452155044479</v>
       </c>
       <c r="E94" t="n">
-        <v>1.244965029066015</v>
+        <v>1.241766622211532</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1058786430828125</v>
+        <v>-0.1050617271588574</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06011426541131544</v>
+        <v>0.0599977879963392</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1333053644086021</v>
       </c>
       <c r="E95" t="n">
-        <v>1.214152030747432</v>
+        <v>1.211809890294937</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01671518191849243</v>
+        <v>-0.0164161182854453</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01642106862312965</v>
+        <v>0.01649504752183078</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.177285077385203</v>
       </c>
       <c r="E96" t="n">
-        <v>1.12547021943423</v>
+        <v>1.12324298237759</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06066832014201329</v>
+        <v>0.06152616056312216</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02500396661126185</v>
+        <v>-0.02492526565519682</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2207429882518159</v>
       </c>
       <c r="E97" t="n">
-        <v>1.064149582506598</v>
+        <v>1.062451215874715</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1084602627220661</v>
+        <v>0.1094251364434234</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01195377407655785</v>
+        <v>-0.01160434183162909</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2608101560035549</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9627827510948339</v>
+        <v>0.9608829100154239</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060960860018724</v>
+        <v>0.1063353369083101</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06446305196314879</v>
+        <v>-0.06453230880448602</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2952698869090365</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9036846291664783</v>
+        <v>0.9027811421908517</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1202685541700638</v>
+        <v>0.120180409099271</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05638675985175497</v>
+        <v>-0.05645601669309219</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3217510898673128</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8517829226607094</v>
+        <v>0.8504969490386067</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1128454799940098</v>
+        <v>0.1130501024797789</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06431824220398913</v>
+        <v>-0.06457638133988244</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3405127106004575</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7712686965679366</v>
+        <v>0.7704360404527685</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1076417727789897</v>
+        <v>0.1074827968477383</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06312198767180061</v>
+        <v>-0.06272690887235413</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3502656467803145</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7472035182223704</v>
+        <v>0.7471185211898201</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1079927790430398</v>
+        <v>0.1071522528322652</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06301023231418826</v>
+        <v>-0.0626403378206826</v>
       </c>
     </row>
   </sheetData>
